--- a/posesiones/1381264.xlsx
+++ b/posesiones/1381264.xlsx
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>13</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>38</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>24</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>14</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>21</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>18</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>7</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>15</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>35</v>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>25</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>12</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>19</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>8</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>15</v>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>16</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>20</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>6</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R55">
         <v>8</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R57">
         <v>20</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59">
         <v>19</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>5</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>27</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R69">
         <v>30</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>5</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>29</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R77">
         <v>6</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78">
         <v>13</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R82">
         <v>15</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R84">
         <v>20</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>11</v>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>20</v>
@@ -6276,10 +6276,10 @@
         <v>1</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6696,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R107">
         <v>12</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>26</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7284,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R116">
         <v>4</v>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>25</v>
@@ -7387,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R118">
         <v>15</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R120">
         <v>12</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R122">
         <v>16</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R124">
         <v>13</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R126">
         <v>6</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8128,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R133">
         <v>20</v>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R134">
         <v>21</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8325,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R137">
         <v>29</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8569,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R142">
         <v>22</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R144">
         <v>17</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R146">
         <v>11</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R148">
         <v>7</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R154">
         <v>18</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R156">
         <v>12</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R162">
         <v>14</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9657,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R164">
         <v>20</v>
@@ -9710,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R165">
         <v>16</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R169">
         <v>17</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10098,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R173">
         <v>42</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10198,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R175">
         <v>22</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10301,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R177">
         <v>15</v>
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R178">
         <v>19</v>
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10454,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R180">
         <v>17</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10607,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R183">
         <v>6</v>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10892,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R190">
         <v>12</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R192">
         <v>19</v>
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R194">
         <v>7</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R196">
         <v>16</v>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11348,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R198">
         <v>11</v>
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11451,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R200">
         <v>6</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11642,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R204">
         <v>9</v>
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11883,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R209">
         <v>1</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12603,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R224">
         <v>27</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R225">
         <v>14</v>
@@ -12700,10 +12700,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12938,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13026,10 +13026,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13079,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R234">
         <v>19</v>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13179,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R236">
         <v>15</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13276,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13373,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R240">
         <v>13</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R243">
         <v>19</v>
@@ -13576,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R244">
         <v>23</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13864,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R250">
         <v>9</v>
@@ -13914,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R254">
         <v>13</v>
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R255">
         <v>17</v>
@@ -14164,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14211,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R261">
         <v>25</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14549,7 +14549,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R264">
         <v>28</v>
@@ -14602,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14840,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R270">
         <v>20</v>
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -14940,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R272">
         <v>8</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15137,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R276">
         <v>24</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15240,7 +15240,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R278">
         <v>8</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R280">
         <v>28</v>
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15437,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R284">
         <v>17</v>
@@ -15587,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15637,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>5</v>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R287">
         <v>16</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R288">
         <v>19</v>
@@ -15793,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15843,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R290">
         <v>5</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16175,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R297">
         <v>15</v>
@@ -16228,7 +16228,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R298">
         <v>12</v>
@@ -16278,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R300">
         <v>20</v>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16431,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R302">
         <v>13</v>
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16728,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R308">
         <v>12</v>
@@ -16781,7 +16781,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R309">
         <v>4</v>
@@ -16834,7 +16834,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R310">
         <v>8</v>
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16931,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17072,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17119,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R318">
         <v>26</v>
@@ -17272,7 +17272,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R319">
         <v>20</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17372,7 +17372,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R321">
         <v>4</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17748,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17795,7 +17795,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17842,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17892,7 +17892,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R332">
         <v>17</v>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R333">
         <v>18</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18048,7 +18048,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R335">
         <v>11</v>
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R337">
         <v>25</v>
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18254,7 +18254,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R339">
         <v>11</v>
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18354,7 +18354,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18401,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18451,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R343">
         <v>23</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18548,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18648,7 +18648,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R347">
         <v>26</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R348">
         <v>1</v>
@@ -18745,10 +18745,10 @@
         <v>1</v>
       </c>
       <c r="P349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18842,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -18977,10 +18977,10 @@
         <v>1</v>
       </c>
       <c r="P354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R355">
         <v>15</v>
@@ -19080,7 +19080,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19127,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19271,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R360">
         <v>19</v>
@@ -19324,7 +19324,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R361">
         <v>20</v>
@@ -19374,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19421,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19518,7 +19518,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19709,7 +19709,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R369">
         <v>23</v>
@@ -19762,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R370">
         <v>9</v>
@@ -19815,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19865,7 +19865,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R372">
         <v>8</v>
@@ -19915,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20106,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R377">
         <v>0</v>
@@ -20159,7 +20159,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R378">
         <v>11</v>
@@ -20212,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20262,7 +20262,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R380">
         <v>8</v>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20362,7 +20362,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R382">
         <v>16</v>
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R383">
         <v>17</v>
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R385">
         <v>8</v>
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20612,7 +20612,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20659,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20706,7 +20706,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20800,7 +20800,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20850,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R392">
         <v>18</v>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20953,7 +20953,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R394">
         <v>14</v>
@@ -21003,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21100,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21147,7 +21147,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21241,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:17">
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
